--- a/medicine/Mort/Cimetière_militaire_allemand_d'Andechy/Cimetière_militaire_allemand_d'Andechy.xlsx
+++ b/medicine/Mort/Cimetière_militaire_allemand_d'Andechy/Cimetière_militaire_allemand_d'Andechy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_allemand_d%27Andechy</t>
+          <t>Cimetière_militaire_allemand_d'Andechy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière militaire allemand d'Andechy est un cimetière militaire de la Première Guerre mondiale, situé sur le territoire de la commune d'Andechy, dans le département de la Somme.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_allemand_d%27Andechy</t>
+          <t>Cimetière_militaire_allemand_d'Andechy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière allemand est situé sur la R. D. 54 entre les villages d'Andechy et d'Erches, à quelques kilomètres de la R. D. 934 et à environ 5 kilomètres au nord-ouest de Roye.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_allemand_d%27Andechy</t>
+          <t>Cimetière_militaire_allemand_d'Andechy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière militaire a été créé par l’État français. Il rassemble les corps de 2 251 soldats allemands morts entre mars et juillet 1918, lors de l'offensive allemande en Picardie. Les tombes sont matérialisées par des croix en métal[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière militaire a été créé par l’État français. Il rassemble les corps de 2 251 soldats allemands morts entre mars et juillet 1918, lors de l'offensive allemande en Picardie. Les tombes sont matérialisées par des croix en métal.
 </t>
         </is>
       </c>
